--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_43.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_43.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9949076865210864</v>
+        <v>0.8501145895741862</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7953645015309805</v>
+        <v>0.6080077910176099</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7571225531685271</v>
+        <v>0.7360894335167472</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9941157885955568</v>
+        <v>0.8631774049041918</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02119689080461881</v>
+        <v>0.355257295908421</v>
       </c>
       <c r="G2" t="n">
-        <v>1.368398520522163</v>
+        <v>2.621253706423398</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8687585444726619</v>
+        <v>0.9439927938967292</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02466954864552012</v>
+        <v>0.5962467774553303</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3798359619759051</v>
+        <v>1.006578232029707</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1455915203733336</v>
+        <v>0.596034643211635</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32590806265047</v>
+        <v>0.7959007177180407</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1478844412810875</v>
+        <v>0.6054215930261648</v>
       </c>
       <c r="N2" t="n">
-        <v>137.7078015364386</v>
+        <v>36.06982594964812</v>
       </c>
       <c r="O2" t="n">
-        <v>279.042974079655</v>
+        <v>73.03440953787394</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.994837417150056</v>
+        <v>0.8501005587207509</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7952162579870853</v>
+        <v>0.6077695952467732</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7571001159840532</v>
+        <v>0.7361940013416806</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9941596785714256</v>
+        <v>0.864222348489464</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02148938893750233</v>
+        <v>0.3552905517338985</v>
       </c>
       <c r="G3" t="n">
-        <v>1.369389825782789</v>
+        <v>2.622846522639774</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8688388009805419</v>
+        <v>0.9436187608501331</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02448553997888219</v>
+        <v>0.5916931125807173</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3820019055455975</v>
+        <v>1.008357368085241</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1465925950977822</v>
+        <v>0.5960625401196576</v>
       </c>
       <c r="L3" t="n">
-        <v>1.330405302396414</v>
+        <v>0.795881611875065</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1489012819317386</v>
+        <v>0.6054499292826021</v>
       </c>
       <c r="N3" t="n">
-        <v>137.680392006938</v>
+        <v>36.06963873734082</v>
       </c>
       <c r="O3" t="n">
-        <v>279.0155645501544</v>
+        <v>73.03422232556665</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9947651245474581</v>
+        <v>0.8500771891729396</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7950716586651699</v>
+        <v>0.6075249050892874</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7570807447504224</v>
+        <v>0.7362928493164425</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9942010606778359</v>
+        <v>0.8652597025294285</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02179030882579995</v>
+        <v>0.3553459420640075</v>
       </c>
       <c r="G4" t="n">
-        <v>1.370356762114256</v>
+        <v>2.624482766849576</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8689080907600306</v>
+        <v>0.9432651873759446</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0243120455516814</v>
+        <v>0.5871725214972342</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3841953047105059</v>
+        <v>1.010170323666479</v>
       </c>
       <c r="K4" t="n">
-        <v>0.147615408497216</v>
+        <v>0.5961090018310472</v>
       </c>
       <c r="L4" t="n">
-        <v>1.335032028962679</v>
+        <v>0.795849789512088</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1499402036197751</v>
+        <v>0.6054971227195015</v>
       </c>
       <c r="N4" t="n">
-        <v>137.6525799146073</v>
+        <v>36.06932695864268</v>
       </c>
       <c r="O4" t="n">
-        <v>278.9877524578237</v>
+        <v>73.0339105468685</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9946906300546283</v>
+        <v>0.8500442383932542</v>
       </c>
       <c r="C5" t="n">
-        <v>0.794920970999629</v>
+        <v>0.6072733707804385</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7570482071988234</v>
+        <v>0.7363851870818141</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9942399635450135</v>
+        <v>0.8662896837462083</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02210039414097086</v>
+        <v>0.3554240417593406</v>
       </c>
       <c r="G5" t="n">
-        <v>1.37136441122758</v>
+        <v>2.626164777931058</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8690244756954649</v>
+        <v>0.9429349005432617</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02414894533173258</v>
+        <v>0.5826840597711982</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3864240695837909</v>
+        <v>1.01201963620966</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1486620131068151</v>
+        <v>0.5961745061299926</v>
       </c>
       <c r="L5" t="n">
-        <v>1.339799676503787</v>
+        <v>0.7958049203652823</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1510032912057546</v>
+        <v>0.605563658645675</v>
       </c>
       <c r="N5" t="n">
-        <v>137.6243196723688</v>
+        <v>36.06888743701163</v>
       </c>
       <c r="O5" t="n">
-        <v>278.9594922155852</v>
+        <v>73.03347102523746</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9946137725370185</v>
+        <v>0.8500017228776541</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7947717663916118</v>
+        <v>0.6070150229773537</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7570194265479053</v>
+        <v>0.7364708476631829</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9942753510095297</v>
+        <v>0.8673123567783492</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02242031560987384</v>
+        <v>0.3555248117212957</v>
       </c>
       <c r="G6" t="n">
-        <v>1.372362143128416</v>
+        <v>2.627892350879868</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8691274224150008</v>
+        <v>0.9426284976105909</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02400058343286158</v>
+        <v>0.5782274457201528</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3887038402908134</v>
+        <v>1.01390699571221</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1497341497784451</v>
+        <v>0.5962590139539157</v>
       </c>
       <c r="L6" t="n">
-        <v>1.344718557630813</v>
+        <v>0.7957470268972311</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1520923129582194</v>
+        <v>0.6056494973833479</v>
       </c>
       <c r="N6" t="n">
-        <v>137.5955755685592</v>
+        <v>36.06832047660577</v>
       </c>
       <c r="O6" t="n">
-        <v>278.9307481117756</v>
+        <v>73.03290406483158</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9945346976637165</v>
+        <v>0.8499492897988805</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7946185127393963</v>
+        <v>0.6067500742439713</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7569805552601188</v>
+        <v>0.7365500131755909</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9943090250158243</v>
+        <v>0.8683270598086232</v>
       </c>
       <c r="F7" t="n">
-        <v>0.02274946688104233</v>
+        <v>0.3556490882184433</v>
       </c>
       <c r="G7" t="n">
-        <v>1.373386951006448</v>
+        <v>2.629664064279972</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8692664627575265</v>
+        <v>0.9423453271629882</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02385940520535116</v>
+        <v>0.5738055634173691</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3910139661491319</v>
+        <v>1.015830413860102</v>
       </c>
       <c r="K7" t="n">
-        <v>0.150829264007494</v>
+        <v>0.5963632183648178</v>
       </c>
       <c r="L7" t="n">
-        <v>1.349779349522144</v>
+        <v>0.7956756286623053</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1532046741416632</v>
+        <v>0.6057553429095555</v>
       </c>
       <c r="N7" t="n">
-        <v>137.5664271353202</v>
+        <v>36.06762148302109</v>
       </c>
       <c r="O7" t="n">
-        <v>278.9015996785366</v>
+        <v>73.03220507124691</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9944532427778695</v>
+        <v>0.8498868159469563</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7944655529202753</v>
+        <v>0.6064783189422406</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7569369528302938</v>
+        <v>0.7366222053941522</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9943381233189738</v>
+        <v>0.869334127094174</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02308852501796801</v>
+        <v>0.3557971632821639</v>
       </c>
       <c r="G8" t="n">
-        <v>1.374409794021226</v>
+        <v>2.631481293233964</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8694224261207959</v>
+        <v>0.9420870997831391</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02373741060731477</v>
+        <v>0.5694169562339588</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3933750308458758</v>
+        <v>1.017785229236811</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1519490869270625</v>
+        <v>0.5964873538325551</v>
       </c>
       <c r="L8" t="n">
-        <v>1.354992462216352</v>
+        <v>0.795590557885217</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1543421331528027</v>
+        <v>0.6058814333868199</v>
       </c>
       <c r="N8" t="n">
-        <v>137.5368390746914</v>
+        <v>36.06678895313961</v>
       </c>
       <c r="O8" t="n">
-        <v>278.8720116179078</v>
+        <v>73.03137254136544</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9943697748034609</v>
+        <v>0.8498140833940391</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7943088444401665</v>
+        <v>0.6061998315216472</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7568926804780027</v>
+        <v>0.7366874433019071</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9943672226760227</v>
+        <v>0.8703332521401154</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02343596268977433</v>
+        <v>0.3559695534434243</v>
       </c>
       <c r="G9" t="n">
-        <v>1.37545770434929</v>
+        <v>2.633343539897789</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8695807857578829</v>
+        <v>0.9418537475698117</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02361541159080584</v>
+        <v>0.5650629598161866</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3957510785789077</v>
+        <v>1.019778105657706</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1530880880074421</v>
+        <v>0.5966318407891288</v>
       </c>
       <c r="L9" t="n">
-        <v>1.360334412578503</v>
+        <v>0.7954915178131596</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1554990723616148</v>
+        <v>0.6060281958685255</v>
       </c>
       <c r="N9" t="n">
-        <v>137.5069671386114</v>
+        <v>36.06582015164564</v>
       </c>
       <c r="O9" t="n">
-        <v>278.8421396818278</v>
+        <v>73.03040373987146</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9942841346071477</v>
+        <v>0.8497310228031189</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7941502541391853</v>
+        <v>0.6059146169472556</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7568450088060186</v>
+        <v>0.7367455759691359</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9943940667536618</v>
+        <v>0.8713245500785434</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02379244229324992</v>
+        <v>0.3561664230442949</v>
       </c>
       <c r="G10" t="n">
-        <v>1.376518198422192</v>
+        <v>2.635250771070038</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8697513045644079</v>
+        <v>0.9416458103898595</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02350286783028398</v>
+        <v>0.5607430724403335</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3981717299829368</v>
+        <v>1.021803280723922</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1542479895922469</v>
+        <v>0.5967968021398028</v>
       </c>
       <c r="L10" t="n">
-        <v>1.365815385142547</v>
+        <v>0.7953784140297788</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1566772412369042</v>
+        <v>0.6061957551955719</v>
       </c>
       <c r="N10" t="n">
-        <v>137.4767745988768</v>
+        <v>36.0647143538071</v>
       </c>
       <c r="O10" t="n">
-        <v>278.8119471420932</v>
+        <v>73.02929794203293</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9941962070478427</v>
+        <v>0.8496372644178845</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7939915818331638</v>
+        <v>0.6056226508267508</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7567945246549096</v>
+        <v>0.7367963600475926</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9944195117803921</v>
+        <v>0.8723076599940117</v>
       </c>
       <c r="F11" t="n">
-        <v>0.02415844310624431</v>
+        <v>0.3563886484784615</v>
       </c>
       <c r="G11" t="n">
-        <v>1.377579240863177</v>
+        <v>2.637203149862233</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8699318834456855</v>
+        <v>0.9414641586858503</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02339618958887401</v>
+        <v>0.5564588669070888</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4006081553297948</v>
+        <v>1.023882796901944</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1554298655543532</v>
+        <v>0.5969829549312622</v>
       </c>
       <c r="L11" t="n">
-        <v>1.371442748938065</v>
+        <v>0.7952507430371193</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1578777305639711</v>
+        <v>0.6063848397074123</v>
       </c>
       <c r="N11" t="n">
-        <v>137.4462426979173</v>
+        <v>36.06346686880418</v>
       </c>
       <c r="O11" t="n">
-        <v>278.7814152411337</v>
+        <v>73.02805045702999</v>
       </c>
     </row>
   </sheetData>
